--- a/aka-Tolob-files/отчёты/8-ЖО касса.xlsx
+++ b/aka-Tolob-files/отчёты/8-ЖО касса.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Новая папка\ФЭУ Флеш\1-020126\документы\Отчёты\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\FEU\02-report-helpers\aka-Tolob-files\отчёты\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,9 +24,6 @@
     <t>Счет</t>
   </si>
   <si>
-    <t>Оборот Кт</t>
-  </si>
-  <si>
     <t>ФЭУ</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t>2 11 670</t>
+  </si>
+  <si>
+    <t>Гардиши Кт</t>
   </si>
 </sst>
 </file>
@@ -418,71 +418,71 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1023,7 +1023,7 @@
   <dimension ref="A1:AF205"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AG188" sqref="AG188"/>
+      <selection activeCell="R211" sqref="R211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="11.4" customHeight="1" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1050,53 +1050,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
+      <c r="A1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
     </row>
     <row r="2" spans="1:19" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
+      <c r="A2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" ht="1.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:19" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25"/>
       <c r="B4" s="25"/>
       <c r="C4" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
@@ -1299,176 +1299,176 @@
     <row r="186" spans="1:32" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="187" spans="1:32" s="1" customFormat="1" ht="10.050000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="188" spans="1:32" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="35" t="s">
+      <c r="A188" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B188" s="35"/>
-      <c r="C188" s="35"/>
-      <c r="D188" s="35"/>
-      <c r="E188" s="35"/>
-      <c r="F188" s="35"/>
-      <c r="G188" s="35"/>
-      <c r="H188" s="35"/>
-      <c r="I188" s="32" t="s">
+      <c r="B188" s="26"/>
+      <c r="C188" s="26"/>
+      <c r="D188" s="26"/>
+      <c r="E188" s="26"/>
+      <c r="F188" s="26"/>
+      <c r="G188" s="26"/>
+      <c r="H188" s="26"/>
+      <c r="I188" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J188" s="27"/>
+      <c r="K188" s="27"/>
+      <c r="L188" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="J188" s="32"/>
-      <c r="K188" s="32"/>
-      <c r="L188" s="32" t="s">
+      <c r="M188" s="27"/>
+      <c r="N188" s="27"/>
+      <c r="O188" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="P188" s="27"/>
+      <c r="Q188" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="M188" s="32"/>
-      <c r="N188" s="32"/>
-      <c r="O188" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="P188" s="32"/>
-      <c r="Q188" s="36" t="s">
+      <c r="R188" s="34"/>
+      <c r="S188" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="R188" s="36"/>
-      <c r="S188" s="36" t="s">
+      <c r="T188" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="T188" s="36" t="s">
+      <c r="U188" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="U188" s="36" t="s">
+      <c r="V188" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="V188" s="36" t="s">
+      <c r="W188" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="W188" s="36" t="s">
+      <c r="X188" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y188" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z188" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="X188" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y188" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z188" s="36" t="s">
+      <c r="AA188" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB188" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="AA188" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB188" s="36" t="s">
+      <c r="AC188" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="AC188" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD188" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE188" s="32" t="s">
+      <c r="AD188" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE188" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF188" s="27" t="s">
         <v>19</v>
-      </c>
-      <c r="AF188" s="32" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="189" spans="1:32" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B189" s="35"/>
-      <c r="C189" s="35"/>
-      <c r="D189" s="35"/>
-      <c r="E189" s="35"/>
-      <c r="F189" s="35"/>
-      <c r="G189" s="35"/>
-      <c r="H189" s="35"/>
-      <c r="I189" s="39"/>
-      <c r="J189" s="40"/>
-      <c r="K189" s="41"/>
-      <c r="L189" s="39"/>
-      <c r="M189" s="40"/>
-      <c r="N189" s="41"/>
-      <c r="O189" s="39"/>
-      <c r="P189" s="41"/>
-      <c r="Q189" s="39"/>
-      <c r="R189" s="41"/>
-      <c r="S189" s="33"/>
-      <c r="T189" s="33"/>
-      <c r="U189" s="33"/>
-      <c r="V189" s="33"/>
-      <c r="W189" s="33"/>
-      <c r="X189" s="33"/>
-      <c r="Y189" s="33"/>
-      <c r="Z189" s="33"/>
-      <c r="AA189" s="33"/>
-      <c r="AB189" s="33"/>
-      <c r="AC189" s="33"/>
-      <c r="AD189" s="33"/>
-      <c r="AE189" s="33"/>
-      <c r="AF189" s="33"/>
+      <c r="A189" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B189" s="26"/>
+      <c r="C189" s="26"/>
+      <c r="D189" s="26"/>
+      <c r="E189" s="26"/>
+      <c r="F189" s="26"/>
+      <c r="G189" s="26"/>
+      <c r="H189" s="26"/>
+      <c r="I189" s="28"/>
+      <c r="J189" s="29"/>
+      <c r="K189" s="30"/>
+      <c r="L189" s="28"/>
+      <c r="M189" s="29"/>
+      <c r="N189" s="30"/>
+      <c r="O189" s="28"/>
+      <c r="P189" s="30"/>
+      <c r="Q189" s="28"/>
+      <c r="R189" s="30"/>
+      <c r="S189" s="35"/>
+      <c r="T189" s="35"/>
+      <c r="U189" s="35"/>
+      <c r="V189" s="35"/>
+      <c r="W189" s="35"/>
+      <c r="X189" s="35"/>
+      <c r="Y189" s="35"/>
+      <c r="Z189" s="35"/>
+      <c r="AA189" s="35"/>
+      <c r="AB189" s="35"/>
+      <c r="AC189" s="35"/>
+      <c r="AD189" s="35"/>
+      <c r="AE189" s="35"/>
+      <c r="AF189" s="35"/>
     </row>
     <row r="190" spans="1:32" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="B190" s="35"/>
-      <c r="C190" s="35"/>
-      <c r="D190" s="35"/>
-      <c r="E190" s="35"/>
-      <c r="F190" s="35"/>
-      <c r="G190" s="35"/>
-      <c r="H190" s="35"/>
-      <c r="I190" s="42"/>
-      <c r="J190" s="43"/>
-      <c r="K190" s="44"/>
-      <c r="L190" s="42"/>
-      <c r="M190" s="43"/>
-      <c r="N190" s="44"/>
-      <c r="O190" s="42"/>
-      <c r="P190" s="44"/>
-      <c r="Q190" s="42"/>
-      <c r="R190" s="44"/>
-      <c r="S190" s="34"/>
-      <c r="T190" s="34"/>
-      <c r="U190" s="34"/>
-      <c r="V190" s="34"/>
-      <c r="W190" s="34"/>
-      <c r="X190" s="34"/>
-      <c r="Y190" s="34"/>
-      <c r="Z190" s="34"/>
-      <c r="AA190" s="34"/>
-      <c r="AB190" s="34"/>
-      <c r="AC190" s="34"/>
-      <c r="AD190" s="34"/>
-      <c r="AE190" s="34"/>
-      <c r="AF190" s="34"/>
+      <c r="A190" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B190" s="26"/>
+      <c r="C190" s="26"/>
+      <c r="D190" s="26"/>
+      <c r="E190" s="26"/>
+      <c r="F190" s="26"/>
+      <c r="G190" s="26"/>
+      <c r="H190" s="26"/>
+      <c r="I190" s="31"/>
+      <c r="J190" s="32"/>
+      <c r="K190" s="33"/>
+      <c r="L190" s="31"/>
+      <c r="M190" s="32"/>
+      <c r="N190" s="33"/>
+      <c r="O190" s="31"/>
+      <c r="P190" s="33"/>
+      <c r="Q190" s="31"/>
+      <c r="R190" s="33"/>
+      <c r="S190" s="36"/>
+      <c r="T190" s="36"/>
+      <c r="U190" s="36"/>
+      <c r="V190" s="36"/>
+      <c r="W190" s="36"/>
+      <c r="X190" s="36"/>
+      <c r="Y190" s="36"/>
+      <c r="Z190" s="36"/>
+      <c r="AA190" s="36"/>
+      <c r="AB190" s="36"/>
+      <c r="AC190" s="36"/>
+      <c r="AD190" s="36"/>
+      <c r="AE190" s="36"/>
+      <c r="AF190" s="36"/>
     </row>
     <row r="191" spans="1:32" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B191" s="26"/>
-      <c r="C191" s="26"/>
-      <c r="D191" s="26"/>
-      <c r="E191" s="26"/>
-      <c r="F191" s="26"/>
-      <c r="G191" s="26"/>
-      <c r="H191" s="26"/>
-      <c r="I191" s="27">
+      <c r="A191" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B191" s="44"/>
+      <c r="C191" s="44"/>
+      <c r="D191" s="44"/>
+      <c r="E191" s="44"/>
+      <c r="F191" s="44"/>
+      <c r="G191" s="44"/>
+      <c r="H191" s="44"/>
+      <c r="I191" s="37">
         <v>472.59</v>
       </c>
-      <c r="J191" s="27"/>
-      <c r="K191" s="27"/>
+      <c r="J191" s="37"/>
+      <c r="K191" s="37"/>
       <c r="L191" s="2"/>
       <c r="M191" s="3"/>
       <c r="N191" s="4"/>
-      <c r="O191" s="28">
+      <c r="O191" s="38">
         <v>12408078.539999999</v>
       </c>
-      <c r="P191" s="28"/>
-      <c r="Q191" s="28">
+      <c r="P191" s="38"/>
+      <c r="Q191" s="38">
         <v>10261250</v>
       </c>
-      <c r="R191" s="28"/>
+      <c r="R191" s="38"/>
       <c r="S191" s="5">
         <v>711499.13</v>
       </c>
@@ -1514,32 +1514,32 @@
       <c r="AF191" s="6"/>
     </row>
     <row r="192" spans="1:32" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B192" s="29"/>
-      <c r="C192" s="29"/>
-      <c r="D192" s="29"/>
-      <c r="E192" s="29"/>
-      <c r="F192" s="29"/>
-      <c r="G192" s="29"/>
-      <c r="H192" s="29"/>
-      <c r="I192" s="30">
+      <c r="A192" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B192" s="39"/>
+      <c r="C192" s="39"/>
+      <c r="D192" s="39"/>
+      <c r="E192" s="39"/>
+      <c r="F192" s="39"/>
+      <c r="G192" s="39"/>
+      <c r="H192" s="39"/>
+      <c r="I192" s="40">
         <v>472.59</v>
       </c>
-      <c r="J192" s="30"/>
-      <c r="K192" s="30"/>
+      <c r="J192" s="40"/>
+      <c r="K192" s="40"/>
       <c r="L192" s="7"/>
       <c r="M192" s="8"/>
       <c r="N192" s="9"/>
-      <c r="O192" s="31">
+      <c r="O192" s="41">
         <v>12408078.539999999</v>
       </c>
-      <c r="P192" s="31"/>
-      <c r="Q192" s="31">
+      <c r="P192" s="41"/>
+      <c r="Q192" s="41">
         <v>10261250</v>
       </c>
-      <c r="R192" s="31"/>
+      <c r="R192" s="41"/>
       <c r="S192" s="10">
         <v>711499.13</v>
       </c>
@@ -1585,26 +1585,26 @@
       <c r="AF192" s="11"/>
     </row>
     <row r="193" spans="1:32" ht="10.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A193" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B193" s="24"/>
-      <c r="C193" s="24"/>
-      <c r="D193" s="24"/>
-      <c r="E193" s="24"/>
-      <c r="F193" s="24"/>
-      <c r="G193" s="24"/>
-      <c r="H193" s="24"/>
+      <c r="A193" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B193" s="43"/>
+      <c r="C193" s="43"/>
+      <c r="D193" s="43"/>
+      <c r="E193" s="43"/>
+      <c r="F193" s="43"/>
+      <c r="G193" s="43"/>
+      <c r="H193" s="43"/>
       <c r="I193" s="12"/>
       <c r="J193" s="13"/>
       <c r="K193" s="14"/>
       <c r="L193" s="12"/>
       <c r="M193" s="13"/>
       <c r="N193" s="14"/>
-      <c r="O193" s="23">
+      <c r="O193" s="42">
         <v>4853.97</v>
       </c>
-      <c r="P193" s="23"/>
+      <c r="P193" s="42"/>
       <c r="Q193" s="16"/>
       <c r="R193" s="17"/>
       <c r="S193" s="18"/>
@@ -1625,26 +1625,26 @@
       <c r="AF193" s="19"/>
     </row>
     <row r="194" spans="1:32" ht="10.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A194" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B194" s="24"/>
-      <c r="C194" s="24"/>
-      <c r="D194" s="24"/>
-      <c r="E194" s="24"/>
-      <c r="F194" s="24"/>
-      <c r="G194" s="24"/>
-      <c r="H194" s="24"/>
+      <c r="A194" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B194" s="43"/>
+      <c r="C194" s="43"/>
+      <c r="D194" s="43"/>
+      <c r="E194" s="43"/>
+      <c r="F194" s="43"/>
+      <c r="G194" s="43"/>
+      <c r="H194" s="43"/>
       <c r="I194" s="12"/>
       <c r="J194" s="13"/>
       <c r="K194" s="14"/>
       <c r="L194" s="12"/>
       <c r="M194" s="13"/>
       <c r="N194" s="14"/>
-      <c r="O194" s="23">
+      <c r="O194" s="42">
         <v>1201439.79</v>
       </c>
-      <c r="P194" s="23"/>
+      <c r="P194" s="42"/>
       <c r="Q194" s="16"/>
       <c r="R194" s="17"/>
       <c r="S194" s="18"/>
@@ -1665,16 +1665,16 @@
       <c r="AF194" s="19"/>
     </row>
     <row r="195" spans="1:32" ht="10.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A195" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B195" s="24"/>
-      <c r="C195" s="24"/>
-      <c r="D195" s="24"/>
-      <c r="E195" s="24"/>
-      <c r="F195" s="24"/>
-      <c r="G195" s="24"/>
-      <c r="H195" s="24"/>
+      <c r="A195" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B195" s="43"/>
+      <c r="C195" s="43"/>
+      <c r="D195" s="43"/>
+      <c r="E195" s="43"/>
+      <c r="F195" s="43"/>
+      <c r="G195" s="43"/>
+      <c r="H195" s="43"/>
       <c r="I195" s="12"/>
       <c r="J195" s="13"/>
       <c r="K195" s="14"/>
@@ -1705,16 +1705,16 @@
       <c r="AF195" s="19"/>
     </row>
     <row r="196" spans="1:32" ht="10.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A196" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B196" s="24"/>
-      <c r="C196" s="24"/>
-      <c r="D196" s="24"/>
-      <c r="E196" s="24"/>
-      <c r="F196" s="24"/>
-      <c r="G196" s="24"/>
-      <c r="H196" s="24"/>
+      <c r="A196" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B196" s="43"/>
+      <c r="C196" s="43"/>
+      <c r="D196" s="43"/>
+      <c r="E196" s="43"/>
+      <c r="F196" s="43"/>
+      <c r="G196" s="43"/>
+      <c r="H196" s="43"/>
       <c r="I196" s="12"/>
       <c r="J196" s="13"/>
       <c r="K196" s="14"/>
@@ -1745,26 +1745,26 @@
       <c r="AF196" s="19"/>
     </row>
     <row r="197" spans="1:32" ht="10.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A197" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B197" s="24"/>
-      <c r="C197" s="24"/>
-      <c r="D197" s="24"/>
-      <c r="E197" s="24"/>
-      <c r="F197" s="24"/>
-      <c r="G197" s="24"/>
-      <c r="H197" s="24"/>
+      <c r="A197" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B197" s="43"/>
+      <c r="C197" s="43"/>
+      <c r="D197" s="43"/>
+      <c r="E197" s="43"/>
+      <c r="F197" s="43"/>
+      <c r="G197" s="43"/>
+      <c r="H197" s="43"/>
       <c r="I197" s="12"/>
       <c r="J197" s="13"/>
       <c r="K197" s="14"/>
       <c r="L197" s="12"/>
       <c r="M197" s="13"/>
       <c r="N197" s="14"/>
-      <c r="O197" s="23">
+      <c r="O197" s="42">
         <v>940534.78</v>
       </c>
-      <c r="P197" s="23"/>
+      <c r="P197" s="42"/>
       <c r="Q197" s="16"/>
       <c r="R197" s="17"/>
       <c r="S197" s="15">
@@ -1789,16 +1789,16 @@
       <c r="AF197" s="19"/>
     </row>
     <row r="198" spans="1:32" ht="10.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A198" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B198" s="24"/>
-      <c r="C198" s="24"/>
-      <c r="D198" s="24"/>
-      <c r="E198" s="24"/>
-      <c r="F198" s="24"/>
-      <c r="G198" s="24"/>
-      <c r="H198" s="24"/>
+      <c r="A198" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B198" s="43"/>
+      <c r="C198" s="43"/>
+      <c r="D198" s="43"/>
+      <c r="E198" s="43"/>
+      <c r="F198" s="43"/>
+      <c r="G198" s="43"/>
+      <c r="H198" s="43"/>
       <c r="I198" s="12"/>
       <c r="J198" s="13"/>
       <c r="K198" s="14"/>
@@ -1831,16 +1831,16 @@
       <c r="AF198" s="19"/>
     </row>
     <row r="199" spans="1:32" ht="10.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A199" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B199" s="24"/>
-      <c r="C199" s="24"/>
-      <c r="D199" s="24"/>
-      <c r="E199" s="24"/>
-      <c r="F199" s="24"/>
-      <c r="G199" s="24"/>
-      <c r="H199" s="24"/>
+      <c r="A199" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B199" s="43"/>
+      <c r="C199" s="43"/>
+      <c r="D199" s="43"/>
+      <c r="E199" s="43"/>
+      <c r="F199" s="43"/>
+      <c r="G199" s="43"/>
+      <c r="H199" s="43"/>
       <c r="I199" s="12"/>
       <c r="J199" s="13"/>
       <c r="K199" s="14"/>
@@ -1871,30 +1871,30 @@
       <c r="AF199" s="19"/>
     </row>
     <row r="200" spans="1:32" ht="10.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A200" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B200" s="24"/>
-      <c r="C200" s="24"/>
-      <c r="D200" s="24"/>
-      <c r="E200" s="24"/>
-      <c r="F200" s="24"/>
-      <c r="G200" s="24"/>
-      <c r="H200" s="24"/>
+      <c r="A200" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B200" s="43"/>
+      <c r="C200" s="43"/>
+      <c r="D200" s="43"/>
+      <c r="E200" s="43"/>
+      <c r="F200" s="43"/>
+      <c r="G200" s="43"/>
+      <c r="H200" s="43"/>
       <c r="I200" s="12"/>
       <c r="J200" s="13"/>
       <c r="K200" s="14"/>
       <c r="L200" s="12"/>
       <c r="M200" s="13"/>
       <c r="N200" s="14"/>
-      <c r="O200" s="23">
+      <c r="O200" s="42">
         <v>10261250</v>
       </c>
-      <c r="P200" s="23"/>
-      <c r="Q200" s="23">
+      <c r="P200" s="42"/>
+      <c r="Q200" s="42">
         <v>10261250</v>
       </c>
-      <c r="R200" s="23"/>
+      <c r="R200" s="42"/>
       <c r="S200" s="18"/>
       <c r="T200" s="18"/>
       <c r="U200" s="18"/>
@@ -1911,16 +1911,16 @@
       <c r="AF200" s="19"/>
     </row>
     <row r="201" spans="1:32" ht="10.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A201" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B201" s="24"/>
-      <c r="C201" s="24"/>
-      <c r="D201" s="24"/>
-      <c r="E201" s="24"/>
-      <c r="F201" s="24"/>
-      <c r="G201" s="24"/>
-      <c r="H201" s="24"/>
+      <c r="A201" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B201" s="43"/>
+      <c r="C201" s="43"/>
+      <c r="D201" s="43"/>
+      <c r="E201" s="43"/>
+      <c r="F201" s="43"/>
+      <c r="G201" s="43"/>
+      <c r="H201" s="43"/>
       <c r="I201" s="12"/>
       <c r="J201" s="13"/>
       <c r="K201" s="14"/>
@@ -1958,14 +1958,29 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A188:H188"/>
-    <mergeCell ref="I188:K190"/>
-    <mergeCell ref="L188:N190"/>
-    <mergeCell ref="O188:P190"/>
-    <mergeCell ref="Q188:R190"/>
+    <mergeCell ref="Q200:R200"/>
+    <mergeCell ref="A201:H201"/>
+    <mergeCell ref="C4:S4"/>
+    <mergeCell ref="A198:H198"/>
+    <mergeCell ref="A199:H199"/>
+    <mergeCell ref="A200:H200"/>
+    <mergeCell ref="O200:P200"/>
+    <mergeCell ref="A196:H196"/>
+    <mergeCell ref="A197:H197"/>
+    <mergeCell ref="O197:P197"/>
+    <mergeCell ref="A193:H193"/>
+    <mergeCell ref="O193:P193"/>
+    <mergeCell ref="A194:H194"/>
+    <mergeCell ref="O194:P194"/>
+    <mergeCell ref="A195:H195"/>
+    <mergeCell ref="A191:H191"/>
+    <mergeCell ref="I191:K191"/>
+    <mergeCell ref="O191:P191"/>
+    <mergeCell ref="Q191:R191"/>
+    <mergeCell ref="A192:H192"/>
+    <mergeCell ref="I192:K192"/>
+    <mergeCell ref="O192:P192"/>
+    <mergeCell ref="Q192:R192"/>
     <mergeCell ref="AE188:AE190"/>
     <mergeCell ref="AF188:AF190"/>
     <mergeCell ref="A189:H189"/>
@@ -1982,29 +1997,14 @@
     <mergeCell ref="U188:U190"/>
     <mergeCell ref="V188:V190"/>
     <mergeCell ref="W188:W190"/>
-    <mergeCell ref="I191:K191"/>
-    <mergeCell ref="O191:P191"/>
-    <mergeCell ref="Q191:R191"/>
-    <mergeCell ref="A192:H192"/>
-    <mergeCell ref="I192:K192"/>
-    <mergeCell ref="O192:P192"/>
-    <mergeCell ref="Q192:R192"/>
-    <mergeCell ref="Q200:R200"/>
-    <mergeCell ref="A201:H201"/>
-    <mergeCell ref="C4:S4"/>
-    <mergeCell ref="A198:H198"/>
-    <mergeCell ref="A199:H199"/>
-    <mergeCell ref="A200:H200"/>
-    <mergeCell ref="O200:P200"/>
-    <mergeCell ref="A196:H196"/>
-    <mergeCell ref="A197:H197"/>
-    <mergeCell ref="O197:P197"/>
-    <mergeCell ref="A193:H193"/>
-    <mergeCell ref="O193:P193"/>
-    <mergeCell ref="A194:H194"/>
-    <mergeCell ref="O194:P194"/>
-    <mergeCell ref="A195:H195"/>
-    <mergeCell ref="A191:H191"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A188:H188"/>
+    <mergeCell ref="I188:K190"/>
+    <mergeCell ref="L188:N190"/>
+    <mergeCell ref="O188:P190"/>
+    <mergeCell ref="Q188:R190"/>
   </mergeCells>
   <pageMargins left="0.75" right="1" top="0.75" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/aka-Tolob-files/отчёты/8-ЖО касса.xlsx
+++ b/aka-Tolob-files/отчёты/8-ЖО касса.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\FEU\02-report-helpers\aka-Tolob-files\отчёты\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\WORK\FEU_Files\aka-Tolob-files\отчёты\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF43B381-1499-43C3-BD41-0C75DAA608D1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5892" tabRatio="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Счет</t>
   </si>
@@ -34,9 +35,6 @@
   </si>
   <si>
     <t>1 11 110</t>
-  </si>
-  <si>
-    <t>Маблағҳои пулли</t>
   </si>
   <si>
     <t>Моддаҳои ҳаракати пули нақд</t>
@@ -120,9 +118,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -184,27 +182,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="19">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB3AC86"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB3AC86"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB3AC86"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB3AC86"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -345,29 +328,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB3AC86"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB3AC86"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB3AC86"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB3AC86"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB3AC86"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB3AC86"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB3AC86"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB3AC86"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB3AC86"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB3AC86"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB3AC86"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB3AC86"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB3AC86"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -376,13 +430,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -391,54 +445,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -448,41 +532,32 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -519,7 +594,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Имя " descr="Descr "/>
+        <xdr:cNvPr id="3" name="Имя " descr="Descr ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -556,7 +637,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Имя " descr="Descr "/>
+        <xdr:cNvPr id="2" name="Имя " descr="Descr ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -593,7 +680,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Имя " descr="Descr "/>
+        <xdr:cNvPr id="4" name="Имя " descr="Descr ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -630,7 +723,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Имя " descr="Descr "/>
+        <xdr:cNvPr id="5" name="Имя " descr="Descr ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -667,7 +766,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Имя " descr="Descr "/>
+        <xdr:cNvPr id="6" name="Имя " descr="Descr ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -704,7 +809,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Имя " descr="Descr "/>
+        <xdr:cNvPr id="7" name="Имя " descr="Descr ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -805,6 +916,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -840,6 +968,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1015,84 +1160,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:AF205"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R211" sqref="R211"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R212" sqref="R212:R213"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="11.4" customHeight="1" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.28515625" style="1" customWidth="1"/>
-    <col min="4" max="7" width="10.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.33203125" style="1" customWidth="1"/>
+    <col min="4" max="7" width="10.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="7" style="1" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="2.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="3.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="2.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.1640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5" style="1" customWidth="1"/>
     <col min="17" max="17" width="4" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="23" width="18.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="18.7109375" style="1" customWidth="1"/>
-    <col min="25" max="30" width="18.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="32" width="18.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="23" width="18.6640625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="18.6640625" style="1" customWidth="1"/>
+    <col min="25" max="30" width="18.6640625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="32" width="18.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:19" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
     </row>
-    <row r="2" spans="1:19" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
     </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" ht="1.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:19" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" s="1" customFormat="1" ht="1.9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:19" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25"/>
       <c r="B4" s="25"/>
       <c r="C4" s="25" t="s">
@@ -1115,360 +1260,358 @@
       <c r="R4" s="25"/>
       <c r="S4" s="25"/>
     </row>
-    <row r="5" spans="1:19" s="1" customFormat="1" ht="1.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:19" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:19" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:19" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:19" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:19" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:19" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:19" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:19" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:19" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:19" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:19" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="177" spans="1:32" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="178" spans="1:32" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="179" spans="1:32" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="180" spans="1:32" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="181" spans="1:32" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="182" spans="1:32" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="183" spans="1:32" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="184" spans="1:32" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="185" spans="1:32" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="186" spans="1:32" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="187" spans="1:32" s="1" customFormat="1" ht="10.050000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" spans="1:32" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="26" t="s">
+    <row r="5" spans="1:19" s="1" customFormat="1" ht="1.9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:19" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:19" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:19" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:19" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:19" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:19" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:19" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:19" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:19" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:19" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:19" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="177" spans="1:32" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="178" spans="1:32" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="179" spans="1:32" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="180" spans="1:32" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="181" spans="1:32" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="182" spans="1:32" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="183" spans="1:32" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="184" spans="1:32" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="185" spans="1:32" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="186" spans="1:32" ht="11.25" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="187" spans="1:32" s="1" customFormat="1" ht="10.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" spans="1:32" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B188" s="26"/>
-      <c r="C188" s="26"/>
-      <c r="D188" s="26"/>
-      <c r="E188" s="26"/>
-      <c r="F188" s="26"/>
-      <c r="G188" s="26"/>
-      <c r="H188" s="26"/>
-      <c r="I188" s="27" t="s">
+      <c r="B188" s="45"/>
+      <c r="C188" s="45"/>
+      <c r="D188" s="45"/>
+      <c r="E188" s="45"/>
+      <c r="F188" s="45"/>
+      <c r="G188" s="45"/>
+      <c r="H188" s="46"/>
+      <c r="I188" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="J188" s="32"/>
+      <c r="K188" s="32"/>
+      <c r="L188" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J188" s="27"/>
-      <c r="K188" s="27"/>
-      <c r="L188" s="27" t="s">
+      <c r="M188" s="32"/>
+      <c r="N188" s="32"/>
+      <c r="O188" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="P188" s="32"/>
+      <c r="Q188" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="M188" s="27"/>
-      <c r="N188" s="27"/>
-      <c r="O188" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="P188" s="27"/>
-      <c r="Q188" s="34" t="s">
+      <c r="R188" s="35"/>
+      <c r="S188" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="R188" s="34"/>
-      <c r="S188" s="34" t="s">
+      <c r="T188" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="T188" s="34" t="s">
+      <c r="U188" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="U188" s="34" t="s">
+      <c r="V188" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="V188" s="34" t="s">
+      <c r="W188" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="W188" s="34" t="s">
+      <c r="X188" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y188" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z188" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="X188" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y188" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z188" s="34" t="s">
+      <c r="AA188" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB188" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="AA188" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB188" s="34" t="s">
+      <c r="AC188" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="AC188" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD188" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE188" s="27" t="s">
+      <c r="AD188" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE188" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF188" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="AF188" s="27" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="189" spans="1:32" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="26" t="s">
+    <row r="189" spans="1:32" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="47"/>
+      <c r="B189" s="48"/>
+      <c r="C189" s="48"/>
+      <c r="D189" s="48"/>
+      <c r="E189" s="48"/>
+      <c r="F189" s="48"/>
+      <c r="G189" s="48"/>
+      <c r="H189" s="49"/>
+      <c r="I189" s="38"/>
+      <c r="J189" s="39"/>
+      <c r="K189" s="40"/>
+      <c r="L189" s="38"/>
+      <c r="M189" s="39"/>
+      <c r="N189" s="40"/>
+      <c r="O189" s="38"/>
+      <c r="P189" s="40"/>
+      <c r="Q189" s="38"/>
+      <c r="R189" s="40"/>
+      <c r="S189" s="33"/>
+      <c r="T189" s="33"/>
+      <c r="U189" s="33"/>
+      <c r="V189" s="33"/>
+      <c r="W189" s="33"/>
+      <c r="X189" s="33"/>
+      <c r="Y189" s="33"/>
+      <c r="Z189" s="33"/>
+      <c r="AA189" s="33"/>
+      <c r="AB189" s="33"/>
+      <c r="AC189" s="33"/>
+      <c r="AD189" s="33"/>
+      <c r="AE189" s="33"/>
+      <c r="AF189" s="33"/>
+    </row>
+    <row r="190" spans="1:32" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B189" s="26"/>
-      <c r="C189" s="26"/>
-      <c r="D189" s="26"/>
-      <c r="E189" s="26"/>
-      <c r="F189" s="26"/>
-      <c r="G189" s="26"/>
-      <c r="H189" s="26"/>
-      <c r="I189" s="28"/>
-      <c r="J189" s="29"/>
-      <c r="K189" s="30"/>
-      <c r="L189" s="28"/>
-      <c r="M189" s="29"/>
-      <c r="N189" s="30"/>
-      <c r="O189" s="28"/>
-      <c r="P189" s="30"/>
-      <c r="Q189" s="28"/>
-      <c r="R189" s="30"/>
-      <c r="S189" s="35"/>
-      <c r="T189" s="35"/>
-      <c r="U189" s="35"/>
-      <c r="V189" s="35"/>
-      <c r="W189" s="35"/>
-      <c r="X189" s="35"/>
-      <c r="Y189" s="35"/>
-      <c r="Z189" s="35"/>
-      <c r="AA189" s="35"/>
-      <c r="AB189" s="35"/>
-      <c r="AC189" s="35"/>
-      <c r="AD189" s="35"/>
-      <c r="AE189" s="35"/>
-      <c r="AF189" s="35"/>
+      <c r="B190" s="51"/>
+      <c r="C190" s="51"/>
+      <c r="D190" s="51"/>
+      <c r="E190" s="51"/>
+      <c r="F190" s="51"/>
+      <c r="G190" s="51"/>
+      <c r="H190" s="52"/>
+      <c r="I190" s="41"/>
+      <c r="J190" s="42"/>
+      <c r="K190" s="43"/>
+      <c r="L190" s="41"/>
+      <c r="M190" s="42"/>
+      <c r="N190" s="43"/>
+      <c r="O190" s="41"/>
+      <c r="P190" s="43"/>
+      <c r="Q190" s="41"/>
+      <c r="R190" s="43"/>
+      <c r="S190" s="34"/>
+      <c r="T190" s="34"/>
+      <c r="U190" s="34"/>
+      <c r="V190" s="34"/>
+      <c r="W190" s="34"/>
+      <c r="X190" s="34"/>
+      <c r="Y190" s="34"/>
+      <c r="Z190" s="34"/>
+      <c r="AA190" s="34"/>
+      <c r="AB190" s="34"/>
+      <c r="AC190" s="34"/>
+      <c r="AD190" s="34"/>
+      <c r="AE190" s="34"/>
+      <c r="AF190" s="34"/>
     </row>
-    <row r="190" spans="1:32" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B190" s="26"/>
-      <c r="C190" s="26"/>
-      <c r="D190" s="26"/>
-      <c r="E190" s="26"/>
-      <c r="F190" s="26"/>
-      <c r="G190" s="26"/>
-      <c r="H190" s="26"/>
-      <c r="I190" s="31"/>
-      <c r="J190" s="32"/>
-      <c r="K190" s="33"/>
-      <c r="L190" s="31"/>
-      <c r="M190" s="32"/>
-      <c r="N190" s="33"/>
-      <c r="O190" s="31"/>
-      <c r="P190" s="33"/>
-      <c r="Q190" s="31"/>
-      <c r="R190" s="33"/>
-      <c r="S190" s="36"/>
-      <c r="T190" s="36"/>
-      <c r="U190" s="36"/>
-      <c r="V190" s="36"/>
-      <c r="W190" s="36"/>
-      <c r="X190" s="36"/>
-      <c r="Y190" s="36"/>
-      <c r="Z190" s="36"/>
-      <c r="AA190" s="36"/>
-      <c r="AB190" s="36"/>
-      <c r="AC190" s="36"/>
-      <c r="AD190" s="36"/>
-      <c r="AE190" s="36"/>
-      <c r="AF190" s="36"/>
-    </row>
-    <row r="191" spans="1:32" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="44" t="s">
+    <row r="191" spans="1:32" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B191" s="44"/>
-      <c r="C191" s="44"/>
-      <c r="D191" s="44"/>
-      <c r="E191" s="44"/>
-      <c r="F191" s="44"/>
-      <c r="G191" s="44"/>
-      <c r="H191" s="44"/>
-      <c r="I191" s="37">
+      <c r="B191" s="26"/>
+      <c r="C191" s="26"/>
+      <c r="D191" s="26"/>
+      <c r="E191" s="26"/>
+      <c r="F191" s="26"/>
+      <c r="G191" s="26"/>
+      <c r="H191" s="26"/>
+      <c r="I191" s="27">
         <v>472.59</v>
       </c>
-      <c r="J191" s="37"/>
-      <c r="K191" s="37"/>
+      <c r="J191" s="27"/>
+      <c r="K191" s="27"/>
       <c r="L191" s="2"/>
       <c r="M191" s="3"/>
       <c r="N191" s="4"/>
-      <c r="O191" s="38">
+      <c r="O191" s="28">
         <v>12408078.539999999</v>
       </c>
-      <c r="P191" s="38"/>
-      <c r="Q191" s="38">
+      <c r="P191" s="28"/>
+      <c r="Q191" s="28">
         <v>10261250</v>
       </c>
-      <c r="R191" s="38"/>
+      <c r="R191" s="28"/>
       <c r="S191" s="5">
         <v>711499.13</v>
       </c>
@@ -1513,33 +1656,33 @@
       </c>
       <c r="AF191" s="6"/>
     </row>
-    <row r="192" spans="1:32" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B192" s="39"/>
-      <c r="C192" s="39"/>
-      <c r="D192" s="39"/>
-      <c r="E192" s="39"/>
-      <c r="F192" s="39"/>
-      <c r="G192" s="39"/>
-      <c r="H192" s="39"/>
-      <c r="I192" s="40">
+    <row r="192" spans="1:32" ht="10.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B192" s="29"/>
+      <c r="C192" s="29"/>
+      <c r="D192" s="29"/>
+      <c r="E192" s="29"/>
+      <c r="F192" s="29"/>
+      <c r="G192" s="29"/>
+      <c r="H192" s="29"/>
+      <c r="I192" s="30">
         <v>472.59</v>
       </c>
-      <c r="J192" s="40"/>
-      <c r="K192" s="40"/>
+      <c r="J192" s="30"/>
+      <c r="K192" s="30"/>
       <c r="L192" s="7"/>
       <c r="M192" s="8"/>
       <c r="N192" s="9"/>
-      <c r="O192" s="41">
+      <c r="O192" s="31">
         <v>12408078.539999999</v>
       </c>
-      <c r="P192" s="41"/>
-      <c r="Q192" s="41">
+      <c r="P192" s="31"/>
+      <c r="Q192" s="31">
         <v>10261250</v>
       </c>
-      <c r="R192" s="41"/>
+      <c r="R192" s="31"/>
       <c r="S192" s="10">
         <v>711499.13</v>
       </c>
@@ -1584,27 +1727,27 @@
       </c>
       <c r="AF192" s="11"/>
     </row>
-    <row r="193" spans="1:32" ht="10.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A193" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="B193" s="43"/>
-      <c r="C193" s="43"/>
-      <c r="D193" s="43"/>
-      <c r="E193" s="43"/>
-      <c r="F193" s="43"/>
-      <c r="G193" s="43"/>
-      <c r="H193" s="43"/>
+    <row r="193" spans="1:32" ht="10.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A193" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B193" s="24"/>
+      <c r="C193" s="24"/>
+      <c r="D193" s="24"/>
+      <c r="E193" s="24"/>
+      <c r="F193" s="24"/>
+      <c r="G193" s="24"/>
+      <c r="H193" s="24"/>
       <c r="I193" s="12"/>
       <c r="J193" s="13"/>
       <c r="K193" s="14"/>
       <c r="L193" s="12"/>
       <c r="M193" s="13"/>
       <c r="N193" s="14"/>
-      <c r="O193" s="42">
+      <c r="O193" s="23">
         <v>4853.97</v>
       </c>
-      <c r="P193" s="42"/>
+      <c r="P193" s="23"/>
       <c r="Q193" s="16"/>
       <c r="R193" s="17"/>
       <c r="S193" s="18"/>
@@ -1624,27 +1767,27 @@
       <c r="AE193" s="21"/>
       <c r="AF193" s="19"/>
     </row>
-    <row r="194" spans="1:32" ht="10.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A194" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B194" s="43"/>
-      <c r="C194" s="43"/>
-      <c r="D194" s="43"/>
-      <c r="E194" s="43"/>
-      <c r="F194" s="43"/>
-      <c r="G194" s="43"/>
-      <c r="H194" s="43"/>
+    <row r="194" spans="1:32" ht="10.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A194" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B194" s="24"/>
+      <c r="C194" s="24"/>
+      <c r="D194" s="24"/>
+      <c r="E194" s="24"/>
+      <c r="F194" s="24"/>
+      <c r="G194" s="24"/>
+      <c r="H194" s="24"/>
       <c r="I194" s="12"/>
       <c r="J194" s="13"/>
       <c r="K194" s="14"/>
       <c r="L194" s="12"/>
       <c r="M194" s="13"/>
       <c r="N194" s="14"/>
-      <c r="O194" s="42">
+      <c r="O194" s="23">
         <v>1201439.79</v>
       </c>
-      <c r="P194" s="42"/>
+      <c r="P194" s="23"/>
       <c r="Q194" s="16"/>
       <c r="R194" s="17"/>
       <c r="S194" s="18"/>
@@ -1664,17 +1807,17 @@
       <c r="AE194" s="19"/>
       <c r="AF194" s="19"/>
     </row>
-    <row r="195" spans="1:32" ht="10.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A195" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B195" s="43"/>
-      <c r="C195" s="43"/>
-      <c r="D195" s="43"/>
-      <c r="E195" s="43"/>
-      <c r="F195" s="43"/>
-      <c r="G195" s="43"/>
-      <c r="H195" s="43"/>
+    <row r="195" spans="1:32" ht="10.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A195" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B195" s="24"/>
+      <c r="C195" s="24"/>
+      <c r="D195" s="24"/>
+      <c r="E195" s="24"/>
+      <c r="F195" s="24"/>
+      <c r="G195" s="24"/>
+      <c r="H195" s="24"/>
       <c r="I195" s="12"/>
       <c r="J195" s="13"/>
       <c r="K195" s="14"/>
@@ -1704,17 +1847,17 @@
       <c r="AE195" s="19"/>
       <c r="AF195" s="19"/>
     </row>
-    <row r="196" spans="1:32" ht="10.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A196" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="B196" s="43"/>
-      <c r="C196" s="43"/>
-      <c r="D196" s="43"/>
-      <c r="E196" s="43"/>
-      <c r="F196" s="43"/>
-      <c r="G196" s="43"/>
-      <c r="H196" s="43"/>
+    <row r="196" spans="1:32" ht="10.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A196" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B196" s="24"/>
+      <c r="C196" s="24"/>
+      <c r="D196" s="24"/>
+      <c r="E196" s="24"/>
+      <c r="F196" s="24"/>
+      <c r="G196" s="24"/>
+      <c r="H196" s="24"/>
       <c r="I196" s="12"/>
       <c r="J196" s="13"/>
       <c r="K196" s="14"/>
@@ -1744,27 +1887,27 @@
       <c r="AE196" s="19"/>
       <c r="AF196" s="19"/>
     </row>
-    <row r="197" spans="1:32" ht="10.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A197" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="B197" s="43"/>
-      <c r="C197" s="43"/>
-      <c r="D197" s="43"/>
-      <c r="E197" s="43"/>
-      <c r="F197" s="43"/>
-      <c r="G197" s="43"/>
-      <c r="H197" s="43"/>
+    <row r="197" spans="1:32" ht="10.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A197" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B197" s="24"/>
+      <c r="C197" s="24"/>
+      <c r="D197" s="24"/>
+      <c r="E197" s="24"/>
+      <c r="F197" s="24"/>
+      <c r="G197" s="24"/>
+      <c r="H197" s="24"/>
       <c r="I197" s="12"/>
       <c r="J197" s="13"/>
       <c r="K197" s="14"/>
       <c r="L197" s="12"/>
       <c r="M197" s="13"/>
       <c r="N197" s="14"/>
-      <c r="O197" s="42">
+      <c r="O197" s="23">
         <v>940534.78</v>
       </c>
-      <c r="P197" s="42"/>
+      <c r="P197" s="23"/>
       <c r="Q197" s="16"/>
       <c r="R197" s="17"/>
       <c r="S197" s="15">
@@ -1788,17 +1931,17 @@
       <c r="AE197" s="19"/>
       <c r="AF197" s="19"/>
     </row>
-    <row r="198" spans="1:32" ht="10.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A198" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="B198" s="43"/>
-      <c r="C198" s="43"/>
-      <c r="D198" s="43"/>
-      <c r="E198" s="43"/>
-      <c r="F198" s="43"/>
-      <c r="G198" s="43"/>
-      <c r="H198" s="43"/>
+    <row r="198" spans="1:32" ht="10.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A198" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B198" s="24"/>
+      <c r="C198" s="24"/>
+      <c r="D198" s="24"/>
+      <c r="E198" s="24"/>
+      <c r="F198" s="24"/>
+      <c r="G198" s="24"/>
+      <c r="H198" s="24"/>
       <c r="I198" s="12"/>
       <c r="J198" s="13"/>
       <c r="K198" s="14"/>
@@ -1830,17 +1973,17 @@
       <c r="AE198" s="19"/>
       <c r="AF198" s="19"/>
     </row>
-    <row r="199" spans="1:32" ht="10.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A199" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="B199" s="43"/>
-      <c r="C199" s="43"/>
-      <c r="D199" s="43"/>
-      <c r="E199" s="43"/>
-      <c r="F199" s="43"/>
-      <c r="G199" s="43"/>
-      <c r="H199" s="43"/>
+    <row r="199" spans="1:32" ht="10.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A199" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B199" s="24"/>
+      <c r="C199" s="24"/>
+      <c r="D199" s="24"/>
+      <c r="E199" s="24"/>
+      <c r="F199" s="24"/>
+      <c r="G199" s="24"/>
+      <c r="H199" s="24"/>
       <c r="I199" s="12"/>
       <c r="J199" s="13"/>
       <c r="K199" s="14"/>
@@ -1870,31 +2013,31 @@
       <c r="AE199" s="19"/>
       <c r="AF199" s="19"/>
     </row>
-    <row r="200" spans="1:32" ht="10.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A200" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="B200" s="43"/>
-      <c r="C200" s="43"/>
-      <c r="D200" s="43"/>
-      <c r="E200" s="43"/>
-      <c r="F200" s="43"/>
-      <c r="G200" s="43"/>
-      <c r="H200" s="43"/>
+    <row r="200" spans="1:32" ht="10.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A200" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B200" s="24"/>
+      <c r="C200" s="24"/>
+      <c r="D200" s="24"/>
+      <c r="E200" s="24"/>
+      <c r="F200" s="24"/>
+      <c r="G200" s="24"/>
+      <c r="H200" s="24"/>
       <c r="I200" s="12"/>
       <c r="J200" s="13"/>
       <c r="K200" s="14"/>
       <c r="L200" s="12"/>
       <c r="M200" s="13"/>
       <c r="N200" s="14"/>
-      <c r="O200" s="42">
+      <c r="O200" s="23">
         <v>10261250</v>
       </c>
-      <c r="P200" s="42"/>
-      <c r="Q200" s="42">
+      <c r="P200" s="23"/>
+      <c r="Q200" s="23">
         <v>10261250</v>
       </c>
-      <c r="R200" s="42"/>
+      <c r="R200" s="23"/>
       <c r="S200" s="18"/>
       <c r="T200" s="18"/>
       <c r="U200" s="18"/>
@@ -1910,17 +2053,17 @@
       <c r="AE200" s="19"/>
       <c r="AF200" s="19"/>
     </row>
-    <row r="201" spans="1:32" ht="10.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A201" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B201" s="43"/>
-      <c r="C201" s="43"/>
-      <c r="D201" s="43"/>
-      <c r="E201" s="43"/>
-      <c r="F201" s="43"/>
-      <c r="G201" s="43"/>
-      <c r="H201" s="43"/>
+    <row r="201" spans="1:32" ht="10.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A201" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B201" s="24"/>
+      <c r="C201" s="24"/>
+      <c r="D201" s="24"/>
+      <c r="E201" s="24"/>
+      <c r="F201" s="24"/>
+      <c r="G201" s="24"/>
+      <c r="H201" s="24"/>
       <c r="I201" s="12"/>
       <c r="J201" s="13"/>
       <c r="K201" s="14"/>
@@ -1950,14 +2093,44 @@
       <c r="AE201" s="19"/>
       <c r="AF201" s="19"/>
     </row>
-    <row r="204" spans="1:32" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:32" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="X204" s="22"/>
     </row>
-    <row r="205" spans="1:32" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:32" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="X205" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="46">
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="I188:K190"/>
+    <mergeCell ref="L188:N190"/>
+    <mergeCell ref="O188:P190"/>
+    <mergeCell ref="Q188:R190"/>
+    <mergeCell ref="A190:H190"/>
+    <mergeCell ref="A188:H189"/>
+    <mergeCell ref="AE188:AE190"/>
+    <mergeCell ref="AF188:AF190"/>
+    <mergeCell ref="AC188:AC190"/>
+    <mergeCell ref="AD188:AD190"/>
+    <mergeCell ref="X188:X190"/>
+    <mergeCell ref="Y188:Y190"/>
+    <mergeCell ref="Z188:Z190"/>
+    <mergeCell ref="AA188:AA190"/>
+    <mergeCell ref="AB188:AB190"/>
+    <mergeCell ref="S188:S190"/>
+    <mergeCell ref="T188:T190"/>
+    <mergeCell ref="U188:U190"/>
+    <mergeCell ref="V188:V190"/>
+    <mergeCell ref="W188:W190"/>
+    <mergeCell ref="I191:K191"/>
+    <mergeCell ref="O191:P191"/>
+    <mergeCell ref="Q191:R191"/>
+    <mergeCell ref="A192:H192"/>
+    <mergeCell ref="I192:K192"/>
+    <mergeCell ref="O192:P192"/>
+    <mergeCell ref="Q192:R192"/>
     <mergeCell ref="Q200:R200"/>
     <mergeCell ref="A201:H201"/>
     <mergeCell ref="C4:S4"/>
@@ -1974,37 +2147,6 @@
     <mergeCell ref="O194:P194"/>
     <mergeCell ref="A195:H195"/>
     <mergeCell ref="A191:H191"/>
-    <mergeCell ref="I191:K191"/>
-    <mergeCell ref="O191:P191"/>
-    <mergeCell ref="Q191:R191"/>
-    <mergeCell ref="A192:H192"/>
-    <mergeCell ref="I192:K192"/>
-    <mergeCell ref="O192:P192"/>
-    <mergeCell ref="Q192:R192"/>
-    <mergeCell ref="AE188:AE190"/>
-    <mergeCell ref="AF188:AF190"/>
-    <mergeCell ref="A189:H189"/>
-    <mergeCell ref="A190:H190"/>
-    <mergeCell ref="AC188:AC190"/>
-    <mergeCell ref="AD188:AD190"/>
-    <mergeCell ref="X188:X190"/>
-    <mergeCell ref="Y188:Y190"/>
-    <mergeCell ref="Z188:Z190"/>
-    <mergeCell ref="AA188:AA190"/>
-    <mergeCell ref="AB188:AB190"/>
-    <mergeCell ref="S188:S190"/>
-    <mergeCell ref="T188:T190"/>
-    <mergeCell ref="U188:U190"/>
-    <mergeCell ref="V188:V190"/>
-    <mergeCell ref="W188:W190"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A188:H188"/>
-    <mergeCell ref="I188:K190"/>
-    <mergeCell ref="L188:N190"/>
-    <mergeCell ref="O188:P190"/>
-    <mergeCell ref="Q188:R190"/>
   </mergeCells>
   <pageMargins left="0.75" right="1" top="0.75" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
